--- a/Wastes/Month 5/month_5_wastes.xlsx
+++ b/Wastes/Month 5/month_5_wastes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
   <si>
     <t>Week</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Lunches</t>
   </si>
   <si>
-    <t>10.04-07.05 2017</t>
-  </si>
-  <si>
     <t>Shops</t>
   </si>
   <si>
@@ -113,10 +110,40 @@
     <t>26.06-30.06 2017</t>
   </si>
   <si>
-    <t>1.1 (food for us) + 2 (Egor) + 2 (Natalia) + 2 (Kirill)</t>
-  </si>
-  <si>
-    <t>1.1 (food for us) + 6 (for cake (Egor, Natalia, Kirill))</t>
+    <t>20 (Olya)</t>
+  </si>
+  <si>
+    <t>10 (Olya)</t>
+  </si>
+  <si>
+    <t>01.06-30.06 2017</t>
+  </si>
+  <si>
+    <t>2.5 (Olya)</t>
+  </si>
+  <si>
+    <t>72 (Kirill) + 48 (common)</t>
+  </si>
+  <si>
+    <t>2.5 (Olya) + 72 (Kirill) + 48 (common)</t>
+  </si>
+  <si>
+    <t>21 (Kirill)</t>
+  </si>
+  <si>
+    <t>51 (Kirill) + 20 (Olya) + 48 (common)</t>
+  </si>
+  <si>
+    <t>51(Kirill) + 48 (common)</t>
+  </si>
+  <si>
+    <t>(26 ticket + 3.1 diplom)</t>
+  </si>
+  <si>
+    <t>(48 common + 21 train to home + 30 Olya present)</t>
+  </si>
+  <si>
+    <t>(diplom + A1 (Olya) + father present + train to home)</t>
   </si>
 </sst>
 </file>
@@ -437,7 +464,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +505,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -508,13 +535,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -533,12 +560,12 @@
       </c>
       <c r="I3">
         <f xml:space="preserve"> B3+C3+D3+E3+F3+G3+H3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -547,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -563,12 +590,12 @@
       </c>
       <c r="I4">
         <f xml:space="preserve"> B4+C4+D4+E4+F4+G4+H4</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -598,7 +625,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -632,7 +659,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>6</v>
+        <v>12.3</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +672,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +713,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -704,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2">
         <f xml:space="preserve"> B2+C2+D2+E2+F2+G2+H2</f>
-        <v>11.1</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -725,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -741,18 +768,18 @@
       </c>
       <c r="I3">
         <f xml:space="preserve"> B3+C3+D3+E3+F3+G3+H3</f>
-        <v>0</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -771,12 +798,12 @@
       </c>
       <c r="I4">
         <f xml:space="preserve"> B4+C4+D4+E4+F4+G4+H4</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -806,7 +833,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -840,7 +867,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>11.1</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -852,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +888,7 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="50.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
@@ -901,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
@@ -909,36 +936,48 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J6">
-        <v>7.1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -947,7 +986,7 @@
       </c>
       <c r="J11">
         <f>$J$6+$J$7+$J$8+$J$9+$J$10</f>
-        <v>7.1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -981,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
         <v>8</v>
@@ -989,27 +1028,48 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>122.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1018,39 +1078,39 @@
       </c>
       <c r="J22">
         <f>$J$17+$J$18+$J$19+$J$20+$J$21</f>
-        <v>0</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <f>J11</f>
-        <v>7.1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <f xml:space="preserve"> J22</f>
-        <v>0</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <f xml:space="preserve"> C24-C25</f>
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1165,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1135,7 +1195,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1165,7 +1225,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1195,7 +1255,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1225,7 +1285,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1269,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,9 +1340,10 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1311,12 +1372,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1338,21 +1399,24 @@
       </c>
       <c r="I2">
         <f xml:space="preserve"> B2+C2+D2+E2+F2+G2+H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1364,19 +1428,22 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <f xml:space="preserve"> B3+C3+D3+E3+F3+G3+H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1398,12 +1465,15 @@
       </c>
       <c r="I4">
         <f xml:space="preserve"> B4+C4+D4+E4+F4+G4+H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29.1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1431,9 +1501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1461,13 +1531,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>0</v>
+        <v>215.6</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1550,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1560,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,30 +1569,30 @@
       </c>
       <c r="B2">
         <f>Lunches!I7</f>
-        <v>6</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <f xml:space="preserve"> Shops!I7</f>
-        <v>11.1</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <f xml:space="preserve"> Debts!C26</f>
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <f xml:space="preserve"> 'Public places'!I7</f>
@@ -1531,20 +1601,20 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <f xml:space="preserve"> Other!I7</f>
-        <v>0</v>
+        <v>215.6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <f xml:space="preserve"> B2+B3+B5+B6</f>
-        <v>17.100000000000001</v>
+        <v>301.8</v>
       </c>
     </row>
   </sheetData>
